--- a/Test/BO/Error_125.xlsx
+++ b/Test/BO/Error_125.xlsx
@@ -423,34 +423,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.2029579691578192</v>
+        <v>0.007084026488219264</v>
       </c>
       <c r="B1" t="n">
-        <v>1.149147965221549</v>
+        <v>0.0225918355454473</v>
       </c>
       <c r="C1" t="n">
-        <v>0.2021967857206716</v>
+        <v>0.004162763751787812</v>
       </c>
       <c r="D1" t="n">
-        <v>0.8712539607961268</v>
+        <v>0.00698149095381928</v>
       </c>
       <c r="E1" t="n">
-        <v>0.08212155845099112</v>
+        <v>2.333593850867288e-05</v>
       </c>
       <c r="F1" t="n">
-        <v>0.01213087231431231</v>
+        <v>2.768291013710567e-05</v>
       </c>
       <c r="G1" t="n">
-        <v>0.297098355168754</v>
+        <v>0.003381507534923722</v>
       </c>
       <c r="H1" t="n">
-        <v>0.9354444424379476</v>
+        <v>0.0068767830831864</v>
       </c>
       <c r="I1" t="n">
-        <v>0.9737880184660068</v>
+        <v>0.006371453673154281</v>
       </c>
       <c r="J1" t="n">
-        <v>-0.0003355808325875564</v>
+        <v>1.121346892984931e-05</v>
       </c>
     </row>
   </sheetData>

--- a/Test/BO/Error_125.xlsx
+++ b/Test/BO/Error_125.xlsx
@@ -413,47 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>0.007084026488219264</v>
-      </c>
-      <c r="B1" t="n">
-        <v>0.0225918355454473</v>
-      </c>
-      <c r="C1" t="n">
-        <v>0.004162763751787812</v>
-      </c>
-      <c r="D1" t="n">
-        <v>0.00698149095381928</v>
-      </c>
-      <c r="E1" t="n">
-        <v>2.333593850867288e-05</v>
-      </c>
-      <c r="F1" t="n">
-        <v>2.768291013710567e-05</v>
-      </c>
-      <c r="G1" t="n">
-        <v>0.003381507534923722</v>
-      </c>
-      <c r="H1" t="n">
-        <v>0.0068767830831864</v>
-      </c>
-      <c r="I1" t="n">
-        <v>0.006371453673154281</v>
-      </c>
-      <c r="J1" t="n">
-        <v>1.121346892984931e-05</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>